--- a/Excel_Mapping/Mapping/Import_Mapping_fotografen.xlsx
+++ b/Excel_Mapping/Mapping/Import_Mapping_fotografen.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="29005"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rlaubscher/projects/fotobuero/setup_and_migration/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ADFFD39-0FF0-9248-BC18-2B1ADD4FFF4F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="21140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping" sheetId="1" r:id="rId1"/>
@@ -26,7 +27,7 @@
     <definedName name="table">'Drop-down Lists'!$F$1:$F$16</definedName>
     <definedName name="YES_NO">'Drop-down Lists'!$D$1:$D$2</definedName>
   </definedNames>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="115">
   <si>
     <t>Source</t>
   </si>
@@ -375,13 +376,22 @@
   </si>
   <si>
     <t>createNewRecordForDupeIdnos</t>
+  </si>
+  <si>
+    <t>ca_entities.preferred_labels.middlename</t>
+  </si>
+  <si>
+    <t>ca_entities.preferred_labels.prefix</t>
+  </si>
+  <si>
+    <t>ca_entities.preferred_labels.displayname</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1139,14 +1149,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="16" style="6" customWidth="1"/>
     <col min="2" max="2" width="50.5" style="6" customWidth="1"/>
@@ -1162,7 +1172,7 @@
     <col min="12" max="16384" width="10.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11">
       <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
@@ -1197,12 +1207,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11">
       <c r="A2" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
         <v>106</v>
@@ -1217,12 +1227,12 @@
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11">
       <c r="A3" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
         <v>109</v>
@@ -1236,7 +1246,7 @@
       <c r="J3" s="7"/>
       <c r="K3" s="8"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1254,10 +1264,16 @@
       <c r="J4" s="7"/>
       <c r="K4" s="8"/>
     </row>
-    <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5"/>
+    <row r="5" spans="1:11" s="1" customFormat="1">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="9">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>112</v>
+      </c>
       <c r="D5"/>
       <c r="E5"/>
       <c r="F5"/>
@@ -1267,10 +1283,16 @@
       <c r="J5" s="4"/>
       <c r="K5" s="3"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="9"/>
-      <c r="C6"/>
+    <row r="6" spans="1:11">
+      <c r="A6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="9">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>113</v>
+      </c>
       <c r="D6"/>
       <c r="E6"/>
       <c r="F6"/>
@@ -1279,9 +1301,16 @@
       <c r="J6" s="7"/>
       <c r="K6" s="8"/>
     </row>
-    <row r="7" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="C7" s="7"/>
+    <row r="7" spans="1:11" ht="18">
+      <c r="A7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="9">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>114</v>
+      </c>
       <c r="D7"/>
       <c r="E7"/>
       <c r="F7"/>
@@ -1290,7 +1319,7 @@
       <c r="J7" s="7"/>
       <c r="K7" s="8"/>
     </row>
-    <row r="8" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="18">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -1299,7 +1328,7 @@
       <c r="J8" s="7"/>
       <c r="K8" s="8"/>
     </row>
-    <row r="9" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="18">
       <c r="A9" s="9"/>
       <c r="B9" s="6" t="s">
         <v>12</v>
@@ -1318,7 +1347,7 @@
       <c r="J9" s="7"/>
       <c r="K9" s="8"/>
     </row>
-    <row r="10" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="18">
       <c r="A10" s="9" t="s">
         <v>10</v>
       </c>
@@ -1339,7 +1368,7 @@
       <c r="J10" s="7"/>
       <c r="K10" s="8"/>
     </row>
-    <row r="11" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="18">
       <c r="A11" s="9" t="s">
         <v>10</v>
       </c>
@@ -1360,7 +1389,7 @@
       <c r="J11" s="7"/>
       <c r="K11" s="8"/>
     </row>
-    <row r="12" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="18">
       <c r="A12" s="9" t="s">
         <v>10</v>
       </c>
@@ -1381,7 +1410,7 @@
       <c r="J12" s="7"/>
       <c r="K12" s="8"/>
     </row>
-    <row r="13" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" s="9" customFormat="1" ht="17">
       <c r="A13" s="9" t="s">
         <v>10</v>
       </c>
@@ -1400,7 +1429,7 @@
       <c r="F13" s="7"/>
       <c r="G13"/>
     </row>
-    <row r="14" spans="1:11" s="9" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" s="9" customFormat="1" ht="17">
       <c r="A14" s="9" t="s">
         <v>10</v>
       </c>
@@ -1419,7 +1448,7 @@
       <c r="F14" s="7"/>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" s="9" customFormat="1">
       <c r="A15" s="9" t="s">
         <v>10</v>
       </c>
@@ -1436,7 +1465,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11">
       <c r="A16" s="9" t="s">
         <v>10</v>
       </c>
@@ -1454,7 +1483,7 @@
       <c r="J16" s="7"/>
       <c r="K16" s="8"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11">
       <c r="A17" s="9" t="s">
         <v>10</v>
       </c>
@@ -1473,7 +1502,7 @@
       <c r="J17" s="7"/>
       <c r="K17" s="8"/>
     </row>
-    <row r="18" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" s="9" customFormat="1">
       <c r="A18" s="9" t="s">
         <v>10</v>
       </c>
@@ -1487,7 +1516,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" s="9" customFormat="1">
       <c r="A19" s="9" t="s">
         <v>10</v>
       </c>
@@ -1501,7 +1530,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" s="9" customFormat="1">
       <c r="A20" s="9" t="s">
         <v>10</v>
       </c>
@@ -1515,7 +1544,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" s="9" customFormat="1">
       <c r="A21" s="9" t="s">
         <v>10</v>
       </c>
@@ -1531,19 +1560,19 @@
     </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C18:C19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C18:C19" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>YES_NO</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C17" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>ignore_stop</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C16" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>existingRecordPolicy</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>table</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>RuletypesWRules</formula1>
     </dataValidation>
   </dataValidations>
@@ -1552,7 +1581,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000005000000}">
           <x14:formula1>
             <xm:f>'Drop-down Lists'!$E$1:$E$33</xm:f>
           </x14:formula1>
@@ -1565,20 +1594,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="3" max="3" width="38.83203125" customWidth="1"/>
     <col min="5" max="5" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="14" t="s">
         <v>3</v>
       </c>
@@ -1598,7 +1627,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" s="14" t="s">
         <v>4</v>
       </c>
@@ -1618,7 +1647,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" s="14" t="s">
         <v>10</v>
       </c>
@@ -1632,7 +1661,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" s="14" t="s">
         <v>88</v>
       </c>
@@ -1646,7 +1675,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" s="14" t="s">
         <v>15</v>
       </c>
@@ -1660,7 +1689,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" s="14" t="s">
         <v>89</v>
       </c>
@@ -1674,7 +1703,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="C7" t="s">
         <v>50</v>
       </c>
@@ -1685,7 +1714,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="C8" t="s">
         <v>84</v>
       </c>
@@ -1696,7 +1725,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="C9" t="s">
         <v>51</v>
       </c>
@@ -1707,7 +1736,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="C10" t="s">
         <v>54</v>
       </c>
@@ -1718,7 +1747,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="C11" t="s">
         <v>52</v>
       </c>
@@ -1729,7 +1758,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="C12" t="s">
         <v>85</v>
       </c>
@@ -1740,7 +1769,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="C13" t="s">
         <v>53</v>
       </c>
@@ -1751,7 +1780,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="E14" t="s">
         <v>92</v>
       </c>
@@ -1759,7 +1788,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="E15" t="s">
         <v>93</v>
       </c>
@@ -1767,7 +1796,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="E16" t="s">
         <v>94</v>
       </c>
@@ -1775,37 +1804,37 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="5:5">
       <c r="E17" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="5:5">
       <c r="E18" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="5:5">
       <c r="E19" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="5:5">
       <c r="E20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="5:5">
       <c r="E21" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="5:5">
       <c r="E22" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="23" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="5:5">
       <c r="E23" t="s">
         <v>104</v>
       </c>
